--- a/PCB/OMRA_DRV8874_BOM.xlsx
+++ b/PCB/OMRA_DRV8874_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance.BRADLEY\Documents\GitHub\OMRA-TI-DRV8874-Booster-Module\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476682D4-5C57-4F26-9F0C-BCF47DBF7B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E2DF07-F187-49CD-B015-1F4392FA3212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{56137BE5-65EE-44E8-B80E-527DF98027E8}"/>
   </bookViews>
@@ -182,12 +182,6 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>CL05B104KP5VPNC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL05B104KP5VPNC/20498482</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>OMRA DRV8874 Board Pricing As Of 11/28/25</t>
+  </si>
+  <si>
+    <t>CL05B104KB5NNNC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL05B104KB5NNNC/11696318</t>
   </si>
 </sst>
 </file>
@@ -660,10 +660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49291575-D4A4-4DA6-AEE6-3C1544C755F1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +682,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -759,7 +762,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -774,10 +777,10 @@
         <v>0.03</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,10 +800,10 @@
         <v>0.03</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,99 +992,99 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2">
         <v>0.22</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2">
         <v>0.22</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
       </c>
       <c r="E17" s="2">
         <v>2.25</v>
       </c>
       <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="2">
         <v>0.13</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
@@ -1099,6 +1102,6 @@
     <hyperlink ref="G17" r:id="rId3" xr:uid="{F43059A4-16BB-43D8-9CAF-DE01A84F8EED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup scale="52" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>